--- a/Data_frame/balancos_definitivos/CLSC5.xlsx
+++ b/Data_frame/balancos_definitivos/CLSC5.xlsx
@@ -894,31 +894,31 @@
         <v>11884210.176</v>
       </c>
       <c r="AY2" t="n">
-        <v>1006019.968</v>
+        <v>12142481.408</v>
       </c>
       <c r="AZ2" t="n">
-        <v>988001.9840000001</v>
+        <v>11958245.376</v>
       </c>
       <c r="BA2" t="n">
-        <v>966617.9840000001</v>
+        <v>12919089.152</v>
       </c>
       <c r="BB2" t="n">
-        <v>931169.9840000001</v>
+        <v>11704305.664</v>
       </c>
       <c r="BC2" t="n">
-        <v>921988.992</v>
+        <v>12018322.432</v>
       </c>
       <c r="BD2" t="n">
-        <v>915494.0159999999</v>
+        <v>11628066.816</v>
       </c>
       <c r="BE2" t="n">
-        <v>899171.008</v>
+        <v>11761637.376</v>
       </c>
       <c r="BF2" t="n">
-        <v>895500.992</v>
+        <v>11795190.784</v>
       </c>
       <c r="BG2" t="n">
-        <v>898217.024</v>
+        <v>11598679.04</v>
       </c>
       <c r="BH2" t="n">
         <v>12302261.248</v>
@@ -1081,31 +1081,31 @@
         <v>4229213.952</v>
       </c>
       <c r="AY3" t="n">
-        <v>913393.9840000001</v>
+        <v>3758884.096</v>
       </c>
       <c r="AZ3" t="n">
-        <v>885526.0159999999</v>
+        <v>3765568</v>
       </c>
       <c r="BA3" t="n">
-        <v>767923.008</v>
+        <v>4783756.8</v>
       </c>
       <c r="BB3" t="n">
-        <v>712473.024</v>
+        <v>3568654.08</v>
       </c>
       <c r="BC3" t="n">
-        <v>685587.968</v>
+        <v>3462886.912</v>
       </c>
       <c r="BD3" t="n">
-        <v>658824</v>
+        <v>3678616.064</v>
       </c>
       <c r="BE3" t="n">
-        <v>627145.024</v>
+        <v>3896872.96</v>
       </c>
       <c r="BF3" t="n">
-        <v>610467.008</v>
+        <v>3891017.984</v>
       </c>
       <c r="BG3" t="n">
-        <v>589969.9840000001</v>
+        <v>3488054.016</v>
       </c>
       <c r="BH3" t="n">
         <v>3409987.072</v>
@@ -1268,31 +1268,31 @@
         <v>1100745.984</v>
       </c>
       <c r="AY4" t="n">
-        <v>771329.024</v>
+        <v>743078.976</v>
       </c>
       <c r="AZ4" t="n">
-        <v>744390.0159999999</v>
+        <v>844088</v>
       </c>
       <c r="BA4" t="n">
-        <v>642393.024</v>
+        <v>1707403.008</v>
       </c>
       <c r="BB4" t="n">
-        <v>550769.9840000001</v>
+        <v>1272253.952</v>
       </c>
       <c r="BC4" t="n">
-        <v>517544</v>
+        <v>1436104.96</v>
       </c>
       <c r="BD4" t="n">
-        <v>479584</v>
+        <v>940684.032</v>
       </c>
       <c r="BE4" t="n">
-        <v>467214.016</v>
+        <v>878198.0159999999</v>
       </c>
       <c r="BF4" t="n">
-        <v>416214.016</v>
+        <v>1033761.024</v>
       </c>
       <c r="BG4" t="n">
-        <v>396540.992</v>
+        <v>660894.976</v>
       </c>
       <c r="BH4" t="n">
         <v>906195.968</v>
@@ -1455,31 +1455,31 @@
         <v>0</v>
       </c>
       <c r="AY5" t="n">
-        <v>1547</v>
+        <v>0</v>
       </c>
       <c r="AZ5" t="n">
-        <v>1535</v>
+        <v>0</v>
       </c>
       <c r="BA5" t="n">
-        <v>516</v>
+        <v>0</v>
       </c>
       <c r="BB5" t="n">
-        <v>1354</v>
+        <v>0</v>
       </c>
       <c r="BC5" t="n">
-        <v>1639</v>
+        <v>0</v>
       </c>
       <c r="BD5" t="n">
-        <v>1567</v>
+        <v>0</v>
       </c>
       <c r="BE5" t="n">
-        <v>1402</v>
+        <v>0</v>
       </c>
       <c r="BF5" t="n">
-        <v>29057</v>
+        <v>0</v>
       </c>
       <c r="BG5" t="n">
-        <v>17216</v>
+        <v>0</v>
       </c>
       <c r="BH5" t="n">
         <v>0</v>
@@ -1642,31 +1642,31 @@
         <v>1744174.976</v>
       </c>
       <c r="AY6" t="n">
-        <v>100294</v>
+        <v>1915828.992</v>
       </c>
       <c r="AZ6" t="n">
-        <v>108196</v>
+        <v>1931010.944</v>
       </c>
       <c r="BA6" t="n">
-        <v>91459</v>
+        <v>2212982.016</v>
       </c>
       <c r="BB6" t="n">
-        <v>108837</v>
+        <v>1785394.048</v>
       </c>
       <c r="BC6" t="n">
-        <v>115927</v>
+        <v>1632754.048</v>
       </c>
       <c r="BD6" t="n">
-        <v>137192.992</v>
+        <v>1758932.992</v>
       </c>
       <c r="BE6" t="n">
-        <v>115389</v>
+        <v>1954066.048</v>
       </c>
       <c r="BF6" t="n">
-        <v>105155</v>
+        <v>1742512</v>
       </c>
       <c r="BG6" t="n">
-        <v>117054</v>
+        <v>1694413.952</v>
       </c>
       <c r="BH6" t="n">
         <v>1952160</v>
@@ -1829,31 +1829,31 @@
         <v>16139</v>
       </c>
       <c r="AY7" t="n">
-        <v>0</v>
+        <v>17197</v>
       </c>
       <c r="AZ7" t="n">
-        <v>0</v>
+        <v>13556</v>
       </c>
       <c r="BA7" t="n">
-        <v>0</v>
+        <v>15610</v>
       </c>
       <c r="BB7" t="n">
-        <v>0</v>
+        <v>19601</v>
       </c>
       <c r="BC7" t="n">
-        <v>0</v>
+        <v>21224</v>
       </c>
       <c r="BD7" t="n">
-        <v>0</v>
+        <v>20019</v>
       </c>
       <c r="BE7" t="n">
-        <v>0</v>
+        <v>23175</v>
       </c>
       <c r="BF7" t="n">
-        <v>0</v>
+        <v>30574</v>
       </c>
       <c r="BG7" t="n">
-        <v>0</v>
+        <v>27243</v>
       </c>
       <c r="BH7" t="n">
         <v>23270</v>
@@ -2203,31 +2203,31 @@
         <v>732172.992</v>
       </c>
       <c r="AY9" t="n">
-        <v>25423</v>
+        <v>780958.0159999999</v>
       </c>
       <c r="AZ9" t="n">
-        <v>27220</v>
+        <v>572006.976</v>
       </c>
       <c r="BA9" t="n">
-        <v>29830</v>
+        <v>439832</v>
       </c>
       <c r="BB9" t="n">
-        <v>35767</v>
+        <v>202736</v>
       </c>
       <c r="BC9" t="n">
-        <v>36511</v>
+        <v>98055</v>
       </c>
       <c r="BD9" t="n">
-        <v>31971</v>
+        <v>699238.0159999999</v>
       </c>
       <c r="BE9" t="n">
-        <v>30836</v>
+        <v>787452.992</v>
       </c>
       <c r="BF9" t="n">
-        <v>34601</v>
+        <v>824329.9840000001</v>
       </c>
       <c r="BG9" t="n">
-        <v>37945</v>
+        <v>838347.008</v>
       </c>
       <c r="BH9" t="n">
         <v>267584</v>
@@ -2577,31 +2577,31 @@
         <v>635980.992</v>
       </c>
       <c r="AY11" t="n">
-        <v>14801</v>
+        <v>301820.992</v>
       </c>
       <c r="AZ11" t="n">
-        <v>4185</v>
+        <v>404905.984</v>
       </c>
       <c r="BA11" t="n">
-        <v>3725</v>
+        <v>407929.984</v>
       </c>
       <c r="BB11" t="n">
-        <v>15745</v>
+        <v>288668.992</v>
       </c>
       <c r="BC11" t="n">
-        <v>13967</v>
+        <v>274748.992</v>
       </c>
       <c r="BD11" t="n">
-        <v>8509</v>
+        <v>259742</v>
       </c>
       <c r="BE11" t="n">
-        <v>12304</v>
+        <v>253980.992</v>
       </c>
       <c r="BF11" t="n">
-        <v>25440</v>
+        <v>259840.992</v>
       </c>
       <c r="BG11" t="n">
-        <v>21214</v>
+        <v>267155.008</v>
       </c>
       <c r="BH11" t="n">
         <v>260776.992</v>
@@ -2764,31 +2764,31 @@
         <v>3420259.072</v>
       </c>
       <c r="AY12" t="n">
-        <v>15710</v>
+        <v>4158283.008</v>
       </c>
       <c r="AZ12" t="n">
-        <v>13642</v>
+        <v>3893561.088</v>
       </c>
       <c r="BA12" t="n">
-        <v>17505</v>
+        <v>3739394.048</v>
       </c>
       <c r="BB12" t="n">
-        <v>14034</v>
+        <v>3677466.112</v>
       </c>
       <c r="BC12" t="n">
-        <v>11896</v>
+        <v>3954241.024</v>
       </c>
       <c r="BD12" t="n">
-        <v>11462</v>
+        <v>3143744</v>
       </c>
       <c r="BE12" t="n">
-        <v>10499</v>
+        <v>2965477.888</v>
       </c>
       <c r="BF12" t="n">
-        <v>12445</v>
+        <v>2859083.008</v>
       </c>
       <c r="BG12" t="n">
-        <v>17487</v>
+        <v>2932666.88</v>
       </c>
       <c r="BH12" t="n">
         <v>3600036.096</v>
@@ -3138,31 +3138,31 @@
         <v>137478</v>
       </c>
       <c r="AY14" t="n">
-        <v>0</v>
+        <v>137478</v>
       </c>
       <c r="AZ14" t="n">
-        <v>0</v>
+        <v>137478</v>
       </c>
       <c r="BA14" t="n">
-        <v>0</v>
+        <v>137478</v>
       </c>
       <c r="BB14" t="n">
-        <v>0</v>
+        <v>130865</v>
       </c>
       <c r="BC14" t="n">
-        <v>0</v>
+        <v>130865</v>
       </c>
       <c r="BD14" t="n">
-        <v>0</v>
+        <v>217</v>
       </c>
       <c r="BE14" t="n">
-        <v>0</v>
+        <v>208</v>
       </c>
       <c r="BF14" t="n">
-        <v>0</v>
+        <v>208</v>
       </c>
       <c r="BG14" t="n">
-        <v>0</v>
+        <v>208</v>
       </c>
       <c r="BH14" t="n">
         <v>208</v>
@@ -3512,31 +3512,31 @@
         <v>28836</v>
       </c>
       <c r="AY16" t="n">
-        <v>0</v>
+        <v>26797</v>
       </c>
       <c r="AZ16" t="n">
-        <v>0</v>
+        <v>30245</v>
       </c>
       <c r="BA16" t="n">
-        <v>0</v>
+        <v>25692</v>
       </c>
       <c r="BB16" t="n">
-        <v>0</v>
+        <v>23280</v>
       </c>
       <c r="BC16" t="n">
-        <v>0</v>
+        <v>21162</v>
       </c>
       <c r="BD16" t="n">
-        <v>0</v>
+        <v>19273</v>
       </c>
       <c r="BE16" t="n">
-        <v>0</v>
+        <v>19256</v>
       </c>
       <c r="BF16" t="n">
-        <v>0</v>
+        <v>16238</v>
       </c>
       <c r="BG16" t="n">
-        <v>0</v>
+        <v>16825</v>
       </c>
       <c r="BH16" t="n">
         <v>28383</v>
@@ -4073,31 +4073,31 @@
         <v>877505.9840000001</v>
       </c>
       <c r="AY19" t="n">
-        <v>12312</v>
+        <v>844841.024</v>
       </c>
       <c r="AZ19" t="n">
-        <v>8421</v>
+        <v>708001.024</v>
       </c>
       <c r="BA19" t="n">
-        <v>14209</v>
+        <v>743465.024</v>
       </c>
       <c r="BB19" t="n">
-        <v>10622</v>
+        <v>712958.0159999999</v>
       </c>
       <c r="BC19" t="n">
-        <v>3561</v>
+        <v>719840</v>
       </c>
       <c r="BD19" t="n">
-        <v>4303</v>
+        <v>709022.976</v>
       </c>
       <c r="BE19" t="n">
-        <v>7986</v>
+        <v>688478.976</v>
       </c>
       <c r="BF19" t="n">
-        <v>9670</v>
+        <v>665376</v>
       </c>
       <c r="BG19" t="n">
-        <v>15233</v>
+        <v>677110.976</v>
       </c>
       <c r="BH19" t="n">
         <v>854644.992</v>
@@ -4447,16 +4447,16 @@
         <v>0</v>
       </c>
       <c r="AY21" t="n">
-        <v>152</v>
+        <v>0</v>
       </c>
       <c r="AZ21" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="BA21" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="BB21" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="BC21" t="n">
         <v>0</v>
@@ -4634,31 +4634,31 @@
         <v>287592.992</v>
       </c>
       <c r="AY22" t="n">
-        <v>0</v>
+        <v>321065.984</v>
       </c>
       <c r="AZ22" t="n">
-        <v>0</v>
+        <v>311665.984</v>
       </c>
       <c r="BA22" t="n">
-        <v>0</v>
+        <v>324131.008</v>
       </c>
       <c r="BB22" t="n">
-        <v>0</v>
+        <v>321172.992</v>
       </c>
       <c r="BC22" t="n">
-        <v>0</v>
+        <v>352662.016</v>
       </c>
       <c r="BD22" t="n">
-        <v>0</v>
+        <v>363279.008</v>
       </c>
       <c r="BE22" t="n">
-        <v>0</v>
+        <v>376723.008</v>
       </c>
       <c r="BF22" t="n">
-        <v>0</v>
+        <v>378744</v>
       </c>
       <c r="BG22" t="n">
-        <v>0</v>
+        <v>388932</v>
       </c>
       <c r="BH22" t="n">
         <v>388828</v>
@@ -4821,31 +4821,31 @@
         <v>210452</v>
       </c>
       <c r="AY23" t="n">
-        <v>19842</v>
+        <v>110409</v>
       </c>
       <c r="AZ23" t="n">
-        <v>24083</v>
+        <v>128813</v>
       </c>
       <c r="BA23" t="n">
-        <v>24479</v>
+        <v>128565</v>
       </c>
       <c r="BB23" t="n">
-        <v>22552</v>
+        <v>128779</v>
       </c>
       <c r="BC23" t="n">
-        <v>21532</v>
+        <v>128986</v>
       </c>
       <c r="BD23" t="n">
-        <v>20684</v>
+        <v>133865</v>
       </c>
       <c r="BE23" t="n">
-        <v>21709</v>
+        <v>138971.008</v>
       </c>
       <c r="BF23" t="n">
-        <v>19582</v>
+        <v>167131.008</v>
       </c>
       <c r="BG23" t="n">
-        <v>17426</v>
+        <v>183511.008</v>
       </c>
       <c r="BH23" t="n">
         <v>193248.992</v>
@@ -5008,31 +5008,31 @@
         <v>3736691.968</v>
       </c>
       <c r="AY24" t="n">
-        <v>57074</v>
+        <v>3793839.104</v>
       </c>
       <c r="AZ24" t="n">
-        <v>64751</v>
+        <v>3858637.056</v>
       </c>
       <c r="BA24" t="n">
-        <v>156711.008</v>
+        <v>3943241.984</v>
       </c>
       <c r="BB24" t="n">
-        <v>182111.008</v>
+        <v>4008233.984</v>
       </c>
       <c r="BC24" t="n">
-        <v>202972.992</v>
+        <v>4119546.112</v>
       </c>
       <c r="BD24" t="n">
-        <v>224524</v>
+        <v>4308562.944</v>
       </c>
       <c r="BE24" t="n">
-        <v>239818</v>
+        <v>4383591.936</v>
       </c>
       <c r="BF24" t="n">
-        <v>253007.008</v>
+        <v>4499214.848</v>
       </c>
       <c r="BG24" t="n">
-        <v>273334.016</v>
+        <v>4605514.752</v>
       </c>
       <c r="BH24" t="n">
         <v>4710160.896</v>
@@ -5382,31 +5382,31 @@
         <v>11884210.176</v>
       </c>
       <c r="AY26" t="n">
-        <v>1006019.968</v>
+        <v>12142481.408</v>
       </c>
       <c r="AZ26" t="n">
-        <v>988001.9840000001</v>
+        <v>11958245.376</v>
       </c>
       <c r="BA26" t="n">
-        <v>966617.9840000001</v>
+        <v>12919089.152</v>
       </c>
       <c r="BB26" t="n">
-        <v>931169.9840000001</v>
+        <v>11704305.664</v>
       </c>
       <c r="BC26" t="n">
-        <v>921988.992</v>
+        <v>12018322.432</v>
       </c>
       <c r="BD26" t="n">
-        <v>915494.0159999999</v>
+        <v>11628066.816</v>
       </c>
       <c r="BE26" t="n">
-        <v>899171.008</v>
+        <v>11761637.376</v>
       </c>
       <c r="BF26" t="n">
-        <v>895500.992</v>
+        <v>11795190.784</v>
       </c>
       <c r="BG26" t="n">
-        <v>898217.024</v>
+        <v>11598679.04</v>
       </c>
       <c r="BH26" t="n">
         <v>12302261.248</v>
@@ -5569,31 +5569,31 @@
         <v>2690519.04</v>
       </c>
       <c r="AY27" t="n">
-        <v>131705</v>
+        <v>3613999.104</v>
       </c>
       <c r="AZ27" t="n">
-        <v>142408.992</v>
+        <v>3282107.904</v>
       </c>
       <c r="BA27" t="n">
-        <v>159274</v>
+        <v>3474080</v>
       </c>
       <c r="BB27" t="n">
-        <v>146888</v>
+        <v>3004249.088</v>
       </c>
       <c r="BC27" t="n">
-        <v>136227.008</v>
+        <v>3660097.024</v>
       </c>
       <c r="BD27" t="n">
-        <v>132205</v>
+        <v>3757419.008</v>
       </c>
       <c r="BE27" t="n">
-        <v>142763.008</v>
+        <v>4064358.912</v>
       </c>
       <c r="BF27" t="n">
-        <v>147108</v>
+        <v>4114932.992</v>
       </c>
       <c r="BG27" t="n">
-        <v>164128.992</v>
+        <v>4211834.88</v>
       </c>
       <c r="BH27" t="n">
         <v>3730675.968</v>
@@ -5756,31 +5756,31 @@
         <v>195082</v>
       </c>
       <c r="AY28" t="n">
-        <v>36768</v>
+        <v>220316.992</v>
       </c>
       <c r="AZ28" t="n">
-        <v>48960</v>
+        <v>214708</v>
       </c>
       <c r="BA28" t="n">
-        <v>55934</v>
+        <v>210939.008</v>
       </c>
       <c r="BB28" t="n">
-        <v>45168</v>
+        <v>204494</v>
       </c>
       <c r="BC28" t="n">
-        <v>48212</v>
+        <v>227520</v>
       </c>
       <c r="BD28" t="n">
-        <v>36463</v>
+        <v>227670</v>
       </c>
       <c r="BE28" t="n">
-        <v>48411</v>
+        <v>223456</v>
       </c>
       <c r="BF28" t="n">
-        <v>58058</v>
+        <v>220844</v>
       </c>
       <c r="BG28" t="n">
-        <v>75955</v>
+        <v>236948</v>
       </c>
       <c r="BH28" t="n">
         <v>224899.008</v>
@@ -5943,31 +5943,31 @@
         <v>1044716.992</v>
       </c>
       <c r="AY29" t="n">
-        <v>20615</v>
+        <v>1516625.024</v>
       </c>
       <c r="AZ29" t="n">
-        <v>27919</v>
+        <v>1088185.984</v>
       </c>
       <c r="BA29" t="n">
-        <v>30676</v>
+        <v>881507.008</v>
       </c>
       <c r="BB29" t="n">
-        <v>28040</v>
+        <v>880899.968</v>
       </c>
       <c r="BC29" t="n">
-        <v>19944</v>
+        <v>938520</v>
       </c>
       <c r="BD29" t="n">
-        <v>28652</v>
+        <v>1016513.024</v>
       </c>
       <c r="BE29" t="n">
-        <v>31741</v>
+        <v>900273.9840000001</v>
       </c>
       <c r="BF29" t="n">
-        <v>32933</v>
+        <v>920188.992</v>
       </c>
       <c r="BG29" t="n">
-        <v>29129</v>
+        <v>975944</v>
       </c>
       <c r="BH29" t="n">
         <v>1089091.968</v>
@@ -6130,31 +6130,31 @@
         <v>434075.008</v>
       </c>
       <c r="AY30" t="n">
-        <v>11251</v>
+        <v>486100.992</v>
       </c>
       <c r="AZ30" t="n">
-        <v>11598</v>
+        <v>910696</v>
       </c>
       <c r="BA30" t="n">
-        <v>12474</v>
+        <v>1221363.968</v>
       </c>
       <c r="BB30" t="n">
-        <v>11928</v>
+        <v>321312.992</v>
       </c>
       <c r="BC30" t="n">
-        <v>12958</v>
+        <v>248852.992</v>
       </c>
       <c r="BD30" t="n">
-        <v>11650</v>
+        <v>289796.992</v>
       </c>
       <c r="BE30" t="n">
-        <v>11928</v>
+        <v>339012</v>
       </c>
       <c r="BF30" t="n">
-        <v>10821</v>
+        <v>302153.984</v>
       </c>
       <c r="BG30" t="n">
-        <v>8713</v>
+        <v>241324</v>
       </c>
       <c r="BH30" t="n">
         <v>306747.008</v>
@@ -6317,31 +6317,31 @@
         <v>362975.008</v>
       </c>
       <c r="AY31" t="n">
-        <v>40835</v>
+        <v>292172.992</v>
       </c>
       <c r="AZ31" t="n">
-        <v>40994</v>
+        <v>176554</v>
       </c>
       <c r="BA31" t="n">
-        <v>40724</v>
+        <v>255268.992</v>
       </c>
       <c r="BB31" t="n">
-        <v>35256</v>
+        <v>386897.984</v>
       </c>
       <c r="BC31" t="n">
-        <v>35054</v>
+        <v>582548.992</v>
       </c>
       <c r="BD31" t="n">
-        <v>35335</v>
+        <v>507699.008</v>
       </c>
       <c r="BE31" t="n">
-        <v>33076</v>
+        <v>649211.008</v>
       </c>
       <c r="BF31" t="n">
-        <v>30624</v>
+        <v>549763.968</v>
       </c>
       <c r="BG31" t="n">
-        <v>29361</v>
+        <v>421488</v>
       </c>
       <c r="BH31" t="n">
         <v>522328.992</v>
@@ -6691,31 +6691,31 @@
         <v>62116</v>
       </c>
       <c r="AY33" t="n">
-        <v>0</v>
+        <v>62116</v>
       </c>
       <c r="AZ33" t="n">
-        <v>0</v>
+        <v>134356</v>
       </c>
       <c r="BA33" t="n">
-        <v>0</v>
+        <v>166215.008</v>
       </c>
       <c r="BB33" t="n">
-        <v>0</v>
+        <v>137571.008</v>
       </c>
       <c r="BC33" t="n">
-        <v>0</v>
+        <v>176111.008</v>
       </c>
       <c r="BD33" t="n">
-        <v>0</v>
+        <v>157602</v>
       </c>
       <c r="BE33" t="n">
-        <v>0</v>
+        <v>199296</v>
       </c>
       <c r="BF33" t="n">
-        <v>0</v>
+        <v>175224</v>
       </c>
       <c r="BG33" t="n">
-        <v>0</v>
+        <v>219880</v>
       </c>
       <c r="BH33" t="n">
         <v>211328.992</v>
@@ -6878,31 +6878,31 @@
         <v>389834.016</v>
       </c>
       <c r="AY34" t="n">
-        <v>16335</v>
+        <v>834202.0159999999</v>
       </c>
       <c r="AZ34" t="n">
-        <v>3272</v>
+        <v>538080.992</v>
       </c>
       <c r="BA34" t="n">
-        <v>4311</v>
+        <v>518578.976</v>
       </c>
       <c r="BB34" t="n">
-        <v>8451</v>
+        <v>850920</v>
       </c>
       <c r="BC34" t="n">
-        <v>6529</v>
+        <v>1258547.936</v>
       </c>
       <c r="BD34" t="n">
-        <v>6209</v>
+        <v>1315899.952</v>
       </c>
       <c r="BE34" t="n">
-        <v>6265</v>
+        <v>1510349.952</v>
       </c>
       <c r="BF34" t="n">
-        <v>5967</v>
+        <v>1703717.952</v>
       </c>
       <c r="BG34" t="n">
-        <v>14324</v>
+        <v>1867388.992</v>
       </c>
       <c r="BH34" t="n">
         <v>1103682.976</v>
@@ -7065,31 +7065,31 @@
         <v>201720</v>
       </c>
       <c r="AY35" t="n">
-        <v>5901</v>
+        <v>202464.992</v>
       </c>
       <c r="AZ35" t="n">
-        <v>9666</v>
+        <v>219527.008</v>
       </c>
       <c r="BA35" t="n">
-        <v>15155</v>
+        <v>220207.008</v>
       </c>
       <c r="BB35" t="n">
-        <v>18045</v>
+        <v>222152.992</v>
       </c>
       <c r="BC35" t="n">
-        <v>13530</v>
+        <v>227996</v>
       </c>
       <c r="BD35" t="n">
-        <v>13896</v>
+        <v>242238</v>
       </c>
       <c r="BE35" t="n">
-        <v>11342</v>
+        <v>242760</v>
       </c>
       <c r="BF35" t="n">
-        <v>8705</v>
+        <v>243040</v>
       </c>
       <c r="BG35" t="n">
-        <v>6647</v>
+        <v>248862</v>
       </c>
       <c r="BH35" t="n">
         <v>272596.992</v>
@@ -7439,31 +7439,31 @@
         <v>6909743.104</v>
       </c>
       <c r="AY37" t="n">
-        <v>89297</v>
+        <v>6068940.8</v>
       </c>
       <c r="AZ37" t="n">
-        <v>68296</v>
+        <v>6054768.128</v>
       </c>
       <c r="BA37" t="n">
-        <v>68153</v>
+        <v>6598481.92</v>
       </c>
       <c r="BB37" t="n">
-        <v>49449</v>
+        <v>5800876.032</v>
       </c>
       <c r="BC37" t="n">
-        <v>45504</v>
+        <v>5424884.224</v>
       </c>
       <c r="BD37" t="n">
-        <v>38036</v>
+        <v>4987471.872</v>
       </c>
       <c r="BE37" t="n">
-        <v>26493</v>
+        <v>4641912.832</v>
       </c>
       <c r="BF37" t="n">
-        <v>21048</v>
+        <v>4479067.136</v>
       </c>
       <c r="BG37" t="n">
-        <v>17998</v>
+        <v>4199364.096</v>
       </c>
       <c r="BH37" t="n">
         <v>5639017.984</v>
@@ -7626,31 +7626,31 @@
         <v>1557225.984</v>
       </c>
       <c r="AY38" t="n">
-        <v>75307</v>
+        <v>1532184.064</v>
       </c>
       <c r="AZ38" t="n">
-        <v>64361</v>
+        <v>1845410.944</v>
       </c>
       <c r="BA38" t="n">
-        <v>53766</v>
+        <v>2332233.984</v>
       </c>
       <c r="BB38" t="n">
-        <v>42161</v>
+        <v>2176088.064</v>
       </c>
       <c r="BC38" t="n">
-        <v>36538</v>
+        <v>1982657.024</v>
       </c>
       <c r="BD38" t="n">
-        <v>26768</v>
+        <v>1941569.024</v>
       </c>
       <c r="BE38" t="n">
-        <v>20248</v>
+        <v>1766491.008</v>
       </c>
       <c r="BF38" t="n">
-        <v>14862</v>
+        <v>1924029.952</v>
       </c>
       <c r="BG38" t="n">
-        <v>10981</v>
+        <v>2023410.944</v>
       </c>
       <c r="BH38" t="n">
         <v>2648942.08</v>
@@ -7813,7 +7813,7 @@
         <v>0</v>
       </c>
       <c r="AY39" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AZ39" t="n">
         <v>0</v>
@@ -8000,31 +8000,31 @@
         <v>2553825.024</v>
       </c>
       <c r="AY40" t="n">
-        <v>9191</v>
+        <v>1820616.96</v>
       </c>
       <c r="AZ40" t="n">
-        <v>3734</v>
+        <v>1883118.976</v>
       </c>
       <c r="BA40" t="n">
-        <v>14136</v>
+        <v>1944096</v>
       </c>
       <c r="BB40" t="n">
-        <v>6731</v>
+        <v>1310686.976</v>
       </c>
       <c r="BC40" t="n">
-        <v>8694</v>
+        <v>1225218.944</v>
       </c>
       <c r="BD40" t="n">
-        <v>10972</v>
+        <v>897731.968</v>
       </c>
       <c r="BE40" t="n">
-        <v>5983</v>
+        <v>747275.008</v>
       </c>
       <c r="BF40" t="n">
-        <v>5953</v>
+        <v>446190.016</v>
       </c>
       <c r="BG40" t="n">
-        <v>6799</v>
+        <v>134383.008</v>
       </c>
       <c r="BH40" t="n">
         <v>451291.008</v>
@@ -8187,31 +8187,31 @@
         <v>37416</v>
       </c>
       <c r="AY41" t="n">
-        <v>0</v>
+        <v>77510</v>
       </c>
       <c r="AZ41" t="n">
-        <v>0</v>
+        <v>82592</v>
       </c>
       <c r="BA41" t="n">
-        <v>0</v>
+        <v>85869</v>
       </c>
       <c r="BB41" t="n">
-        <v>0</v>
+        <v>87806</v>
       </c>
       <c r="BC41" t="n">
-        <v>0</v>
+        <v>86482</v>
       </c>
       <c r="BD41" t="n">
-        <v>0</v>
+        <v>89214</v>
       </c>
       <c r="BE41" t="n">
-        <v>0</v>
+        <v>92859</v>
       </c>
       <c r="BF41" t="n">
-        <v>0</v>
+        <v>94235</v>
       </c>
       <c r="BG41" t="n">
-        <v>0</v>
+        <v>96096</v>
       </c>
       <c r="BH41" t="n">
         <v>98092</v>
@@ -8561,31 +8561,31 @@
         <v>2761275.904</v>
       </c>
       <c r="AY43" t="n">
-        <v>4788</v>
+        <v>2638629.888</v>
       </c>
       <c r="AZ43" t="n">
-        <v>201</v>
+        <v>2243645.952</v>
       </c>
       <c r="BA43" t="n">
-        <v>251</v>
+        <v>2236282.88</v>
       </c>
       <c r="BB43" t="n">
-        <v>557</v>
+        <v>2226295.04</v>
       </c>
       <c r="BC43" t="n">
-        <v>272</v>
+        <v>2130525.952</v>
       </c>
       <c r="BD43" t="n">
-        <v>296</v>
+        <v>2058957.056</v>
       </c>
       <c r="BE43" t="n">
-        <v>262</v>
+        <v>2035288.064</v>
       </c>
       <c r="BF43" t="n">
-        <v>233</v>
+        <v>2014611.968</v>
       </c>
       <c r="BG43" t="n">
-        <v>218</v>
+        <v>1945474.048</v>
       </c>
       <c r="BH43" t="n">
         <v>2440692.992</v>
@@ -9309,31 +9309,31 @@
         <v>2283948.032</v>
       </c>
       <c r="AY47" t="n">
-        <v>785017.9840000001</v>
+        <v>2459540.992</v>
       </c>
       <c r="AZ47" t="n">
-        <v>777297.024</v>
+        <v>2621369.088</v>
       </c>
       <c r="BA47" t="n">
-        <v>739190.976</v>
+        <v>2846526.976</v>
       </c>
       <c r="BB47" t="n">
-        <v>734833.024</v>
+        <v>2899181.056</v>
       </c>
       <c r="BC47" t="n">
-        <v>740257.9840000001</v>
+        <v>2933340.928</v>
       </c>
       <c r="BD47" t="n">
-        <v>745252.992</v>
+        <v>2883175.936</v>
       </c>
       <c r="BE47" t="n">
-        <v>729915.008</v>
+        <v>3055365.12</v>
       </c>
       <c r="BF47" t="n">
-        <v>727345.024</v>
+        <v>3201190.912</v>
       </c>
       <c r="BG47" t="n">
-        <v>716089.9840000001</v>
+        <v>3187480.064</v>
       </c>
       <c r="BH47" t="n">
         <v>2932567.04</v>
@@ -9496,31 +9496,31 @@
         <v>2480000</v>
       </c>
       <c r="AY48" t="n">
-        <v>789820.032</v>
+        <v>2480000</v>
       </c>
       <c r="AZ48" t="n">
-        <v>789366.0159999999</v>
+        <v>2480000</v>
       </c>
       <c r="BA48" t="n">
-        <v>789379.968</v>
+        <v>2480000</v>
       </c>
       <c r="BB48" t="n">
-        <v>789379.968</v>
+        <v>2480000</v>
       </c>
       <c r="BC48" t="n">
-        <v>789379.968</v>
+        <v>2480000</v>
       </c>
       <c r="BD48" t="n">
-        <v>789379.968</v>
+        <v>2480000</v>
       </c>
       <c r="BE48" t="n">
-        <v>789379.968</v>
+        <v>2480000</v>
       </c>
       <c r="BF48" t="n">
-        <v>789379.968</v>
+        <v>2480000</v>
       </c>
       <c r="BG48" t="n">
-        <v>789379.968</v>
+        <v>2480000</v>
       </c>
       <c r="BH48" t="n">
         <v>2480000</v>
@@ -9683,31 +9683,31 @@
         <v>316</v>
       </c>
       <c r="AY49" t="n">
-        <v>13657</v>
+        <v>316</v>
       </c>
       <c r="AZ49" t="n">
-        <v>51269</v>
+        <v>316</v>
       </c>
       <c r="BA49" t="n">
-        <v>47464</v>
+        <v>316</v>
       </c>
       <c r="BB49" t="n">
-        <v>47679</v>
+        <v>316</v>
       </c>
       <c r="BC49" t="n">
-        <v>50487</v>
+        <v>316</v>
       </c>
       <c r="BD49" t="n">
-        <v>50171</v>
+        <v>316</v>
       </c>
       <c r="BE49" t="n">
-        <v>52161</v>
+        <v>316</v>
       </c>
       <c r="BF49" t="n">
-        <v>53368</v>
+        <v>316</v>
       </c>
       <c r="BG49" t="n">
-        <v>54559</v>
+        <v>316</v>
       </c>
       <c r="BH49" t="n">
         <v>316</v>
@@ -10057,31 +10057,31 @@
         <v>771470.0159999999</v>
       </c>
       <c r="AY51" t="n">
-        <v>12452</v>
+        <v>771470.0159999999</v>
       </c>
       <c r="AZ51" t="n">
-        <v>0</v>
+        <v>1191329.024</v>
       </c>
       <c r="BA51" t="n">
-        <v>0</v>
+        <v>1191329.024</v>
       </c>
       <c r="BB51" t="n">
-        <v>0</v>
+        <v>1191329.024</v>
       </c>
       <c r="BC51" t="n">
-        <v>0</v>
+        <v>1191329.024</v>
       </c>
       <c r="BD51" t="n">
-        <v>0</v>
+        <v>1561698.944</v>
       </c>
       <c r="BE51" t="n">
-        <v>0</v>
+        <v>1561698.944</v>
       </c>
       <c r="BF51" t="n">
-        <v>0</v>
+        <v>1538824.96</v>
       </c>
       <c r="BG51" t="n">
-        <v>0</v>
+        <v>1538824.96</v>
       </c>
       <c r="BH51" t="n">
         <v>1866898.048</v>
@@ -10244,31 +10244,31 @@
         <v>299587.008</v>
       </c>
       <c r="AY52" t="n">
-        <v>-30192</v>
+        <v>475230.016</v>
       </c>
       <c r="AZ52" t="n">
-        <v>-62065</v>
+        <v>0</v>
       </c>
       <c r="BA52" t="n">
-        <v>-94554</v>
+        <v>225318</v>
       </c>
       <c r="BB52" t="n">
-        <v>-100105</v>
+        <v>284744.992</v>
       </c>
       <c r="BC52" t="n">
-        <v>-97545</v>
+        <v>319060.992</v>
       </c>
       <c r="BD52" t="n">
-        <v>-92358</v>
+        <v>0</v>
       </c>
       <c r="BE52" t="n">
-        <v>-109787</v>
+        <v>172336</v>
       </c>
       <c r="BF52" t="n">
-        <v>-111659</v>
+        <v>341182.016</v>
       </c>
       <c r="BG52" t="n">
-        <v>-125590</v>
+        <v>327612.992</v>
       </c>
       <c r="BH52" t="n">
         <v>0</v>
@@ -10431,31 +10431,31 @@
         <v>-1267425.024</v>
       </c>
       <c r="AY53" t="n">
-        <v>0</v>
+        <v>-1267474.944</v>
       </c>
       <c r="AZ53" t="n">
-        <v>0</v>
+        <v>-1050275.968</v>
       </c>
       <c r="BA53" t="n">
-        <v>0</v>
+        <v>-1050435.968</v>
       </c>
       <c r="BB53" t="n">
-        <v>0</v>
+        <v>-1057209.024</v>
       </c>
       <c r="BC53" t="n">
-        <v>0</v>
+        <v>-1057364.992</v>
       </c>
       <c r="BD53" t="n">
-        <v>0</v>
+        <v>-1158839.04</v>
       </c>
       <c r="BE53" t="n">
-        <v>0</v>
+        <v>-1158985.984</v>
       </c>
       <c r="BF53" t="n">
-        <v>0</v>
+        <v>-1159132.032</v>
       </c>
       <c r="BG53" t="n">
-        <v>-2259</v>
+        <v>-1159273.984</v>
       </c>
       <c r="BH53" t="n">
         <v>-1414647.04</v>
@@ -10805,28 +10805,28 @@
         <v>0</v>
       </c>
       <c r="AY55" t="n">
-        <v>-719</v>
+        <v>0</v>
       </c>
       <c r="AZ55" t="n">
-        <v>-1273</v>
+        <v>0</v>
       </c>
       <c r="BA55" t="n">
-        <v>-3099</v>
+        <v>0</v>
       </c>
       <c r="BB55" t="n">
-        <v>-2121</v>
+        <v>0</v>
       </c>
       <c r="BC55" t="n">
-        <v>-2064</v>
+        <v>0</v>
       </c>
       <c r="BD55" t="n">
-        <v>-1940</v>
+        <v>0</v>
       </c>
       <c r="BE55" t="n">
-        <v>-1839</v>
+        <v>0</v>
       </c>
       <c r="BF55" t="n">
-        <v>-3744</v>
+        <v>0</v>
       </c>
       <c r="BG55" t="n">
         <v>0</v>
@@ -11333,31 +11333,31 @@
         <v>2411120.896</v>
       </c>
       <c r="AY59" t="n">
-        <v>116229</v>
+        <v>2803313.664</v>
       </c>
       <c r="AZ59" t="n">
-        <v>131077.984</v>
+        <v>2677154.048</v>
       </c>
       <c r="BA59" t="n">
-        <v>105427</v>
+        <v>2365673.984</v>
       </c>
       <c r="BB59" t="n">
-        <v>123092</v>
+        <v>2458743.04</v>
       </c>
       <c r="BC59" t="n">
-        <v>130238</v>
+        <v>2581269.504</v>
       </c>
       <c r="BD59" t="n">
-        <v>150884</v>
+        <v>2606984.96</v>
       </c>
       <c r="BE59" t="n">
-        <v>124634</v>
+        <v>2599831.04</v>
       </c>
       <c r="BF59" t="n">
-        <v>126552</v>
+        <v>2606496</v>
       </c>
       <c r="BG59" t="n">
-        <v>119279</v>
+        <v>2589296.128</v>
       </c>
       <c r="BH59" t="n">
         <v>2600515.072</v>
@@ -11520,31 +11520,31 @@
         <v>-2139054.976</v>
       </c>
       <c r="AY60" t="n">
-        <v>-70661</v>
+        <v>-2505351.68</v>
       </c>
       <c r="AZ60" t="n">
-        <v>-91148.008</v>
+        <v>-2136291.968</v>
       </c>
       <c r="BA60" t="n">
-        <v>-91586</v>
+        <v>-2051074.944</v>
       </c>
       <c r="BB60" t="n">
-        <v>-87199</v>
+        <v>-2212867.072</v>
       </c>
       <c r="BC60" t="n">
-        <v>-74208</v>
+        <v>-2243626.496</v>
       </c>
       <c r="BD60" t="n">
-        <v>-80435</v>
+        <v>-2110786.944</v>
       </c>
       <c r="BE60" t="n">
-        <v>-87865</v>
+        <v>-2127840</v>
       </c>
       <c r="BF60" t="n">
-        <v>-82450</v>
+        <v>-2337140.992</v>
       </c>
       <c r="BG60" t="n">
-        <v>-91070</v>
+        <v>-2169288.192</v>
       </c>
       <c r="BH60" t="n">
         <v>-2075462.016</v>
@@ -11707,31 +11707,31 @@
         <v>272065.984</v>
       </c>
       <c r="AY61" t="n">
-        <v>45568</v>
+        <v>297962.048</v>
       </c>
       <c r="AZ61" t="n">
-        <v>39930.008</v>
+        <v>540862.0159999999</v>
       </c>
       <c r="BA61" t="n">
-        <v>13841</v>
+        <v>314599.008</v>
       </c>
       <c r="BB61" t="n">
-        <v>35893</v>
+        <v>245876</v>
       </c>
       <c r="BC61" t="n">
-        <v>56030</v>
+        <v>337643.968</v>
       </c>
       <c r="BD61" t="n">
-        <v>70448.992</v>
+        <v>496198.016</v>
       </c>
       <c r="BE61" t="n">
-        <v>36769</v>
+        <v>471991.008</v>
       </c>
       <c r="BF61" t="n">
-        <v>44102</v>
+        <v>269355.008</v>
       </c>
       <c r="BG61" t="n">
-        <v>28209</v>
+        <v>420007.968</v>
       </c>
       <c r="BH61" t="n">
         <v>525052.992</v>
@@ -11894,31 +11894,31 @@
         <v>-65505</v>
       </c>
       <c r="AY62" t="n">
-        <v>0</v>
+        <v>-58816</v>
       </c>
       <c r="AZ62" t="n">
-        <v>34382</v>
+        <v>-58825</v>
       </c>
       <c r="BA62" t="n">
-        <v>0</v>
+        <v>-62697</v>
       </c>
       <c r="BB62" t="n">
-        <v>-58790</v>
+        <v>-49584</v>
       </c>
       <c r="BC62" t="n">
-        <v>0</v>
+        <v>-40110</v>
       </c>
       <c r="BD62" t="n">
-        <v>58790</v>
+        <v>-59989</v>
       </c>
       <c r="BE62" t="n">
-        <v>0</v>
+        <v>-55836</v>
       </c>
       <c r="BF62" t="n">
-        <v>-58236</v>
+        <v>-55457</v>
       </c>
       <c r="BG62" t="n">
-        <v>0</v>
+        <v>46790</v>
       </c>
       <c r="BH62" t="n">
         <v>-29528</v>
@@ -12081,31 +12081,31 @@
         <v>-85056</v>
       </c>
       <c r="AY63" t="n">
-        <v>-75897</v>
+        <v>-110065.992</v>
       </c>
       <c r="AZ63" t="n">
-        <v>-126123.008</v>
+        <v>-118326</v>
       </c>
       <c r="BA63" t="n">
-        <v>-70940</v>
+        <v>-131320</v>
       </c>
       <c r="BB63" t="n">
-        <v>0</v>
+        <v>-138910</v>
       </c>
       <c r="BC63" t="n">
-        <v>-58724</v>
+        <v>-176997.024</v>
       </c>
       <c r="BD63" t="n">
-        <v>-131399.008</v>
+        <v>-150238</v>
       </c>
       <c r="BE63" t="n">
-        <v>-65797</v>
+        <v>-151696.992</v>
       </c>
       <c r="BF63" t="n">
-        <v>0</v>
+        <v>-160172</v>
       </c>
       <c r="BG63" t="n">
-        <v>-66439</v>
+        <v>-188790.992</v>
       </c>
       <c r="BH63" t="n">
         <v>-149864</v>
@@ -12280,7 +12280,7 @@
         <v>0</v>
       </c>
       <c r="BG64" t="n">
-        <v>0</v>
+        <v>-93920</v>
       </c>
       <c r="BH64" t="n">
         <v>-28432</v>
@@ -12443,31 +12443,31 @@
         <v>-31358</v>
       </c>
       <c r="AY65" t="n">
-        <v>-27970</v>
+        <v>13949</v>
       </c>
       <c r="AZ65" t="n">
-        <v>-1971</v>
+        <v>10517</v>
       </c>
       <c r="BA65" t="n">
-        <v>-1742</v>
+        <v>14471</v>
       </c>
       <c r="BB65" t="n">
-        <v>1535</v>
+        <v>14926</v>
       </c>
       <c r="BC65" t="n">
-        <v>-35</v>
+        <v>20876</v>
       </c>
       <c r="BD65" t="n">
-        <v>-183</v>
+        <v>49901</v>
       </c>
       <c r="BE65" t="n">
-        <v>152</v>
+        <v>36509</v>
       </c>
       <c r="BF65" t="n">
-        <v>-56</v>
+        <v>55222</v>
       </c>
       <c r="BG65" t="n">
-        <v>57</v>
+        <v>179400</v>
       </c>
       <c r="BH65" t="n">
         <v>108704</v>
@@ -12630,7 +12630,7 @@
         <v>23239</v>
       </c>
       <c r="AY66" t="n">
-        <v>0</v>
+        <v>-17334</v>
       </c>
       <c r="AZ66" t="n">
         <v>0</v>
@@ -12654,7 +12654,7 @@
         <v>0</v>
       </c>
       <c r="BG66" t="n">
-        <v>0</v>
+        <v>-341292</v>
       </c>
       <c r="BH66" t="n">
         <v>-67321</v>
@@ -12817,31 +12817,31 @@
         <v>14040</v>
       </c>
       <c r="AY67" t="n">
-        <v>0</v>
+        <v>10965</v>
       </c>
       <c r="AZ67" t="n">
-        <v>0</v>
+        <v>15238</v>
       </c>
       <c r="BA67" t="n">
-        <v>0</v>
+        <v>18031</v>
       </c>
       <c r="BB67" t="n">
-        <v>0</v>
+        <v>35018</v>
       </c>
       <c r="BC67" t="n">
-        <v>0</v>
+        <v>11058</v>
       </c>
       <c r="BD67" t="n">
-        <v>0</v>
+        <v>16589</v>
       </c>
       <c r="BE67" t="n">
-        <v>0</v>
+        <v>11954</v>
       </c>
       <c r="BF67" t="n">
-        <v>0</v>
+        <v>13144</v>
       </c>
       <c r="BG67" t="n">
-        <v>0</v>
+        <v>15434</v>
       </c>
       <c r="BH67" t="n">
         <v>15073</v>
@@ -13004,31 +13004,31 @@
         <v>24689</v>
       </c>
       <c r="AY68" t="n">
-        <v>6601</v>
+        <v>-29583</v>
       </c>
       <c r="AZ68" t="n">
-        <v>13064</v>
+        <v>-19493</v>
       </c>
       <c r="BA68" t="n">
-        <v>10340</v>
+        <v>-9275</v>
       </c>
       <c r="BB68" t="n">
-        <v>20284</v>
+        <v>-28964</v>
       </c>
       <c r="BC68" t="n">
-        <v>12997</v>
+        <v>-24961</v>
       </c>
       <c r="BD68" t="n">
-        <v>12698</v>
+        <v>-52896</v>
       </c>
       <c r="BE68" t="n">
-        <v>11265</v>
+        <v>-20196</v>
       </c>
       <c r="BF68" t="n">
-        <v>10751</v>
+        <v>-96092</v>
       </c>
       <c r="BG68" t="n">
-        <v>12415</v>
+        <v>27396</v>
       </c>
       <c r="BH68" t="n">
         <v>-49540</v>
@@ -13191,31 +13191,31 @@
         <v>76226</v>
       </c>
       <c r="AY69" t="n">
-        <v>9955</v>
+        <v>56600.992</v>
       </c>
       <c r="AZ69" t="n">
-        <v>15910</v>
+        <v>97923</v>
       </c>
       <c r="BA69" t="n">
-        <v>19527</v>
+        <v>131175</v>
       </c>
       <c r="BB69" t="n">
-        <v>23578</v>
+        <v>133334</v>
       </c>
       <c r="BC69" t="n">
-        <v>16553</v>
+        <v>93159.008</v>
       </c>
       <c r="BD69" t="n">
-        <v>17169</v>
+        <v>285620.992</v>
       </c>
       <c r="BE69" t="n">
-        <v>16061</v>
+        <v>136327.008</v>
       </c>
       <c r="BF69" t="n">
-        <v>14739</v>
+        <v>107728</v>
       </c>
       <c r="BG69" t="n">
-        <v>15230</v>
+        <v>150928.032</v>
       </c>
       <c r="BH69" t="n">
         <v>86306</v>
@@ -13378,31 +13378,31 @@
         <v>-51537</v>
       </c>
       <c r="AY70" t="n">
-        <v>-3354</v>
+        <v>-86184</v>
       </c>
       <c r="AZ70" t="n">
-        <v>-2846</v>
+        <v>-117416</v>
       </c>
       <c r="BA70" t="n">
-        <v>-9187</v>
+        <v>-140450</v>
       </c>
       <c r="BB70" t="n">
-        <v>-3294</v>
+        <v>-162298</v>
       </c>
       <c r="BC70" t="n">
-        <v>-3556</v>
+        <v>-118120.032</v>
       </c>
       <c r="BD70" t="n">
-        <v>-4471</v>
+        <v>-338516.992</v>
       </c>
       <c r="BE70" t="n">
-        <v>-4796</v>
+        <v>-156523.008</v>
       </c>
       <c r="BF70" t="n">
-        <v>-3988</v>
+        <v>-203820</v>
       </c>
       <c r="BG70" t="n">
-        <v>-2815</v>
+        <v>-123532</v>
       </c>
       <c r="BH70" t="n">
         <v>-135846</v>
@@ -13796,31 +13796,31 @@
         <v>152115.008</v>
       </c>
       <c r="AY74" t="n">
-        <v>-51698</v>
+        <v>107077.024</v>
       </c>
       <c r="AZ74" t="n">
-        <v>-40718</v>
+        <v>369972.992</v>
       </c>
       <c r="BA74" t="n">
-        <v>-48501</v>
+        <v>143808.992</v>
       </c>
       <c r="BB74" t="n">
-        <v>-1078</v>
+        <v>78362</v>
       </c>
       <c r="BC74" t="n">
-        <v>10268</v>
+        <v>127510.032</v>
       </c>
       <c r="BD74" t="n">
-        <v>10355</v>
+        <v>299564.992</v>
       </c>
       <c r="BE74" t="n">
-        <v>-17611</v>
+        <v>292724.992</v>
       </c>
       <c r="BF74" t="n">
-        <v>-3439</v>
+        <v>26000</v>
       </c>
       <c r="BG74" t="n">
-        <v>-25758</v>
+        <v>65025.024</v>
       </c>
       <c r="BH74" t="n">
         <v>324144.992</v>
@@ -13983,31 +13983,31 @@
         <v>-54346</v>
       </c>
       <c r="AY75" t="n">
-        <v>0</v>
+        <v>11146.008</v>
       </c>
       <c r="AZ75" t="n">
-        <v>0</v>
+        <v>-142300.992</v>
       </c>
       <c r="BA75" t="n">
-        <v>0</v>
+        <v>-10199</v>
       </c>
       <c r="BB75" t="n">
-        <v>0</v>
+        <v>-10401</v>
       </c>
       <c r="BC75" t="n">
-        <v>0</v>
+        <v>-25699.008</v>
       </c>
       <c r="BD75" t="n">
-        <v>0</v>
+        <v>-57311</v>
       </c>
       <c r="BE75" t="n">
-        <v>0</v>
+        <v>-53278</v>
       </c>
       <c r="BF75" t="n">
-        <v>-101</v>
+        <v>-834</v>
       </c>
       <c r="BG75" t="n">
-        <v>7379</v>
+        <v>-20118</v>
       </c>
       <c r="BH75" t="n">
         <v>-72281</v>
@@ -14170,31 +14170,31 @@
         <v>2383</v>
       </c>
       <c r="AY76" t="n">
-        <v>0</v>
+        <v>-29950</v>
       </c>
       <c r="AZ76" t="n">
-        <v>0</v>
+        <v>32187</v>
       </c>
       <c r="BA76" t="n">
-        <v>0</v>
+        <v>-32444</v>
       </c>
       <c r="BB76" t="n">
-        <v>0</v>
+        <v>8204</v>
       </c>
       <c r="BC76" t="n">
-        <v>0</v>
+        <v>1561</v>
       </c>
       <c r="BD76" t="n">
-        <v>0</v>
+        <v>-24191</v>
       </c>
       <c r="BE76" t="n">
-        <v>0</v>
+        <v>-24477</v>
       </c>
       <c r="BF76" t="n">
-        <v>1668</v>
+        <v>9873</v>
       </c>
       <c r="BG76" t="n">
-        <v>4449</v>
+        <v>44055</v>
       </c>
       <c r="BH76" t="n">
         <v>-19853</v>
@@ -14698,31 +14698,31 @@
         <v>100152</v>
       </c>
       <c r="AY80" t="n">
-        <v>-45238</v>
+        <v>88272.976</v>
       </c>
       <c r="AZ80" t="n">
-        <v>-44325</v>
+        <v>259859.008</v>
       </c>
       <c r="BA80" t="n">
-        <v>-39258</v>
+        <v>101166</v>
       </c>
       <c r="BB80" t="n">
-        <v>-5549</v>
+        <v>76165</v>
       </c>
       <c r="BC80" t="n">
-        <v>2559</v>
+        <v>103371.976</v>
       </c>
       <c r="BD80" t="n">
-        <v>5187</v>
+        <v>218063.008</v>
       </c>
       <c r="BE80" t="n">
-        <v>-17429</v>
+        <v>214970</v>
       </c>
       <c r="BF80" t="n">
-        <v>-1872</v>
+        <v>35039</v>
       </c>
       <c r="BG80" t="n">
-        <v>-13930</v>
+        <v>88961.976</v>
       </c>
       <c r="BH80" t="n">
         <v>232011.008</v>
